--- a/data/trans_dic/IMC_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>54,98; 73,25</t>
+          <t>55,55; 74,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,72; 72,42</t>
+          <t>54,91; 73,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,85; 65,66</t>
+          <t>47,66; 65,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,41; 71,64</t>
+          <t>50,84; 71,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,29; 64,51</t>
+          <t>46,34; 63,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,67; 65,11</t>
+          <t>42,8; 63,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>50,88; 68,7</t>
+          <t>49,73; 68,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,27; 66,13</t>
+          <t>51,14; 66,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,44; 65,98</t>
+          <t>53,36; 66,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52,42; 66,05</t>
+          <t>52,56; 66,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>51,9; 65,46</t>
+          <t>51,01; 64,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,0; 66,51</t>
+          <t>53,52; 65,93</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,66; 66,58</t>
+          <t>58,65; 66,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,75; 75,59</t>
+          <t>67,98; 75,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>62,45; 70,59</t>
+          <t>62,31; 70,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>65,36; 73,87</t>
+          <t>65,28; 74,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,82; 56,08</t>
+          <t>48,05; 55,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,58; 59,17</t>
+          <t>50,44; 59,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,0; 58,09</t>
+          <t>48,77; 57,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,94; 59,32</t>
+          <t>52,12; 59,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,55; 60,24</t>
+          <t>54,65; 60,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>60,5; 66,42</t>
+          <t>60,46; 66,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>57,14; 63,19</t>
+          <t>56,79; 62,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>59,58; 65,2</t>
+          <t>59,95; 65,13</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,93; 65,53</t>
+          <t>58,91; 65,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,96; 69,14</t>
+          <t>62,52; 69,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,64; 62,78</t>
+          <t>56,52; 62,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,43; 67,12</t>
+          <t>56,73; 67,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,3; 52,71</t>
+          <t>46,25; 53,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,48; 59,09</t>
+          <t>52,64; 59,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,67; 58,74</t>
+          <t>52,08; 58,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,09; 53,66</t>
+          <t>47,77; 53,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,23; 58,13</t>
+          <t>53,58; 58,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58,67; 63,39</t>
+          <t>58,81; 63,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>55,44; 59,95</t>
+          <t>55,5; 59,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,29; 59,49</t>
+          <t>53,32; 59,73</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>51,76; 59,96</t>
+          <t>52,22; 59,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,8; 63,57</t>
+          <t>55,98; 63,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>55,38; 63,04</t>
+          <t>55,58; 62,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>58,84; 66,66</t>
+          <t>58,06; 66,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,47; 49,79</t>
+          <t>42,19; 49,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,51; 60,29</t>
+          <t>52,84; 60,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,63; 51,17</t>
+          <t>43,29; 50,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,77; 71,42</t>
+          <t>47,91; 71,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,98; 53,48</t>
+          <t>48,26; 53,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55,57; 60,88</t>
+          <t>55,33; 60,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,82; 55,99</t>
+          <t>50,9; 55,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>54,82; 67,14</t>
+          <t>54,84; 68,1</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>52,56; 59,14</t>
+          <t>52,64; 59,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>62,1; 68,21</t>
+          <t>61,82; 68,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>56,85; 63,59</t>
+          <t>56,86; 63,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>58,45; 65,45</t>
+          <t>58,56; 65,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,35; 45,58</t>
+          <t>39,54; 45,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,79; 54,05</t>
+          <t>47,81; 54,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,57; 54,0</t>
+          <t>47,53; 54,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47,95; 53,98</t>
+          <t>47,83; 54,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>46,72; 51,26</t>
+          <t>46,87; 51,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>55,51; 60,08</t>
+          <t>55,61; 59,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53,3; 57,81</t>
+          <t>53,0; 57,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>53,89; 58,59</t>
+          <t>53,49; 58,38</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>57,64; 61,08</t>
+          <t>57,65; 61,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>63,75; 67,17</t>
+          <t>63,58; 67,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>58,94; 62,47</t>
+          <t>58,98; 62,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>61,01; 65,46</t>
+          <t>61,12; 65,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>45,59; 48,95</t>
+          <t>45,57; 48,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>52,6; 56,17</t>
+          <t>52,74; 56,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,49; 53,87</t>
+          <t>50,49; 54,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>50,9; 58,14</t>
+          <t>51,02; 58,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,04; 54,57</t>
+          <t>52,04; 54,51</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>58,52; 61,0</t>
+          <t>58,69; 61,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>55,19; 57,62</t>
+          <t>55,06; 57,56</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>56,31; 60,1</t>
+          <t>56,24; 60,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IMC_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,55; 74,03</t>
+          <t>55,81; 73,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>54,91; 73,42</t>
+          <t>55,46; 73,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,66; 65,61</t>
+          <t>47,69; 66,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,34; 63,43</t>
+          <t>45,79; 62,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,8; 63,23</t>
+          <t>43,84; 65,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>49,73; 68,9</t>
+          <t>49,44; 69,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,36; 66,05</t>
+          <t>53,73; 65,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52,56; 66,03</t>
+          <t>52,35; 66,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>51,01; 64,85</t>
+          <t>51,45; 64,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,65; 66,66</t>
+          <t>58,43; 66,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,98; 75,54</t>
+          <t>67,84; 75,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>62,31; 70,65</t>
+          <t>62,18; 70,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,05; 55,98</t>
+          <t>47,85; 56,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,44; 59,07</t>
+          <t>50,16; 58,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>48,77; 57,88</t>
+          <t>49,03; 57,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,65; 60,26</t>
+          <t>54,55; 60,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>60,46; 66,38</t>
+          <t>60,17; 66,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>56,79; 62,9</t>
+          <t>56,41; 62,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,91; 65,33</t>
+          <t>58,94; 65,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,52; 69,06</t>
+          <t>62,97; 69,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,52; 62,92</t>
+          <t>56,21; 62,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,25; 53,02</t>
+          <t>46,23; 53,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,64; 59,39</t>
+          <t>52,38; 59,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,08; 58,61</t>
+          <t>52,43; 58,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,58; 58,06</t>
+          <t>53,74; 58,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58,81; 63,34</t>
+          <t>58,63; 63,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>55,5; 59,81</t>
+          <t>55,5; 59,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,22; 59,54</t>
+          <t>52,1; 59,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,98; 63,47</t>
+          <t>55,49; 63,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>55,58; 62,99</t>
+          <t>55,17; 62,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,19; 49,59</t>
+          <t>42,44; 49,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,84; 60,38</t>
+          <t>53,04; 60,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,29; 50,71</t>
+          <t>43,84; 50,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48,26; 53,55</t>
+          <t>47,84; 53,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55,33; 60,95</t>
+          <t>55,61; 60,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,9; 55,95</t>
+          <t>50,57; 55,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>52,64; 59,01</t>
+          <t>53,14; 59,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>61,82; 68,53</t>
+          <t>61,88; 68,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>56,86; 63,18</t>
+          <t>57,13; 63,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,54; 45,82</t>
+          <t>39,62; 45,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,81; 54,58</t>
+          <t>47,6; 54,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,53; 54,56</t>
+          <t>47,96; 54,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>46,87; 51,18</t>
+          <t>46,8; 51,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>55,61; 59,94</t>
+          <t>55,2; 59,9</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53,0; 57,68</t>
+          <t>53,21; 57,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>57,65; 61,12</t>
+          <t>57,41; 60,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>63,58; 67,09</t>
+          <t>63,86; 67,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>58,98; 62,43</t>
+          <t>58,97; 62,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>45,57; 48,91</t>
+          <t>45,59; 49,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>52,74; 56,21</t>
+          <t>52,53; 56,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,49; 54,04</t>
+          <t>50,52; 54,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,04; 54,51</t>
+          <t>51,99; 54,41</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>58,69; 61,13</t>
+          <t>58,51; 60,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>55,06; 57,56</t>
+          <t>55,13; 57,62</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/IMC_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,81; 73,87</t>
+          <t>54,98; 73,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,46; 73,16</t>
+          <t>55,72; 72,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,69; 66,54</t>
+          <t>46,85; 65,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,84; 71,76</t>
+          <t>50,41; 71,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,79; 62,67</t>
+          <t>46,29; 64,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,84; 65,0</t>
+          <t>43,67; 65,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>49,44; 69,21</t>
+          <t>50,88; 68,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,14; 66,38</t>
+          <t>51,27; 66,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,73; 65,76</t>
+          <t>53,44; 65,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52,35; 66,67</t>
+          <t>52,42; 66,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>51,45; 64,47</t>
+          <t>51,9; 65,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,52; 65,93</t>
+          <t>54,0; 66,51</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,43; 66,44</t>
+          <t>58,66; 66,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,84; 75,66</t>
+          <t>67,75; 75,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>62,18; 70,94</t>
+          <t>62,45; 70,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>65,28; 74,03</t>
+          <t>65,36; 73,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,85; 56,3</t>
+          <t>47,82; 56,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,16; 58,91</t>
+          <t>50,58; 59,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,03; 57,85</t>
+          <t>49,0; 58,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,12; 59,2</t>
+          <t>51,94; 59,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,55; 60,27</t>
+          <t>54,55; 60,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>60,17; 66,08</t>
+          <t>60,5; 66,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>56,41; 62,93</t>
+          <t>57,14; 63,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>59,95; 65,13</t>
+          <t>59,58; 65,2</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,94; 65,3</t>
+          <t>58,93; 65,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,97; 69,22</t>
+          <t>62,96; 69,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,21; 62,83</t>
+          <t>56,64; 62,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,73; 67,54</t>
+          <t>56,43; 67,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,23; 53,16</t>
+          <t>46,3; 52,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,38; 59,21</t>
+          <t>52,48; 59,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,43; 58,86</t>
+          <t>52,67; 58,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>47,77; 53,7</t>
+          <t>48,09; 53,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,74; 58,3</t>
+          <t>53,23; 58,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58,63; 63,1</t>
+          <t>58,67; 63,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>55,5; 59,97</t>
+          <t>55,44; 59,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,32; 59,73</t>
+          <t>53,29; 59,49</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,1; 59,97</t>
+          <t>51,76; 59,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,49; 63,17</t>
+          <t>55,8; 63,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>55,17; 62,97</t>
+          <t>55,38; 63,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>58,06; 66,68</t>
+          <t>58,84; 66,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,44; 49,72</t>
+          <t>42,47; 49,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,04; 60,55</t>
+          <t>52,51; 60,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,84; 50,98</t>
+          <t>43,63; 51,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,91; 71,03</t>
+          <t>47,77; 71,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,84; 53,51</t>
+          <t>47,98; 53,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55,61; 60,92</t>
+          <t>55,57; 60,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,57; 55,96</t>
+          <t>50,82; 55,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>54,84; 68,1</t>
+          <t>54,82; 67,14</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>53,14; 59,31</t>
+          <t>52,56; 59,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>61,88; 68,58</t>
+          <t>62,1; 68,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57,13; 63,45</t>
+          <t>56,85; 63,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>58,56; 65,71</t>
+          <t>58,45; 65,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,62; 45,8</t>
+          <t>39,35; 45,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,6; 54,19</t>
+          <t>47,79; 54,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,96; 54,43</t>
+          <t>47,57; 54,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47,83; 54,17</t>
+          <t>47,95; 53,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>46,8; 51,23</t>
+          <t>46,72; 51,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>55,2; 59,9</t>
+          <t>55,51; 60,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53,21; 57,91</t>
+          <t>53,3; 57,81</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>53,49; 58,38</t>
+          <t>53,89; 58,59</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>57,41; 60,98</t>
+          <t>57,64; 61,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>63,86; 67,15</t>
+          <t>63,75; 67,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>58,97; 62,49</t>
+          <t>58,94; 62,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>61,12; 65,53</t>
+          <t>61,01; 65,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>45,59; 49,0</t>
+          <t>45,59; 48,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>52,53; 56,02</t>
+          <t>52,6; 56,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,52; 54,09</t>
+          <t>50,49; 53,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>51,02; 58,31</t>
+          <t>50,9; 58,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>51,99; 54,41</t>
+          <t>52,04; 54,57</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>58,51; 60,95</t>
+          <t>58,52; 61,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>55,13; 57,62</t>
+          <t>55,19; 57,62</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>56,24; 60,36</t>
+          <t>56,31; 60,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IMC_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>65,13%</t>
+          <t>63,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>64,9%</t>
+          <t>70,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>56,69%</t>
+          <t>64,86%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>61,69%</t>
+          <t>68,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>54,74%</t>
+          <t>52,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>53,63%</t>
+          <t>54,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>59,81%</t>
+          <t>54,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>59,06%</t>
+          <t>56,19%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>59,97%</t>
+          <t>57,76%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>59,51%</t>
+          <t>62,83%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>58,18%</t>
+          <t>59,72%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>60,22%</t>
+          <t>62,42%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>54,98; 73,25</t>
+          <t>59,23; 66,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,72; 72,42</t>
+          <t>66,96; 74,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,85; 65,66</t>
+          <t>61,17; 68,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,41; 71,64</t>
+          <t>64,74; 72,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,29; 64,51</t>
+          <t>48,36; 55,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,67; 65,11</t>
+          <t>50,4; 58,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>50,88; 68,7</t>
+          <t>50,53; 58,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,27; 66,13</t>
+          <t>52,88; 59,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,44; 65,98</t>
+          <t>55,02; 60,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52,42; 66,05</t>
+          <t>59,82; 65,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>51,9; 65,46</t>
+          <t>57,12; 62,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,0; 66,51</t>
+          <t>59,75; 65,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>62,77%</t>
+          <t>62,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>71,74%</t>
+          <t>66,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>66,62%</t>
+          <t>59,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>69,78%</t>
+          <t>66,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,78%</t>
+          <t>49,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>54,89%</t>
+          <t>55,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>53,29%</t>
+          <t>55,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>55,46%</t>
+          <t>51,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>57,32%</t>
+          <t>55,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>63,48%</t>
+          <t>60,9%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>60,04%</t>
+          <t>57,73%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>62,42%</t>
+          <t>59,99%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,66; 66,58</t>
+          <t>58,93; 65,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,75; 75,59</t>
+          <t>62,96; 69,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>62,45; 70,59</t>
+          <t>56,64; 62,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>65,36; 73,87</t>
+          <t>56,99; 83,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,82; 56,08</t>
+          <t>46,3; 52,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,58; 59,17</t>
+          <t>52,48; 59,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,0; 58,09</t>
+          <t>52,67; 58,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,94; 59,32</t>
+          <t>48,35; 53,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,55; 60,24</t>
+          <t>53,23; 58,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>60,5; 66,42</t>
+          <t>58,67; 63,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>57,14; 63,19</t>
+          <t>55,44; 59,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>59,58; 65,2</t>
+          <t>53,85; 72,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>62,13%</t>
+          <t>55,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>66,07%</t>
+          <t>59,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>59,73%</t>
+          <t>59,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,73%</t>
+          <t>62,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>49,62%</t>
+          <t>45,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>55,73%</t>
+          <t>56,7%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>55,74%</t>
+          <t>47,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,87%</t>
+          <t>60,85%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>55,87%</t>
+          <t>50,92%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>60,9%</t>
+          <t>58,26%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>57,73%</t>
+          <t>53,36%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>55,8%</t>
+          <t>61,38%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,93; 65,53</t>
+          <t>51,76; 59,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,96; 69,14</t>
+          <t>55,8; 63,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,64; 62,78</t>
+          <t>55,38; 63,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,43; 67,12</t>
+          <t>58,02; 66,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,3; 52,71</t>
+          <t>42,47; 49,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,48; 59,09</t>
+          <t>52,51; 60,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,67; 58,74</t>
+          <t>43,63; 51,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,09; 53,66</t>
+          <t>47,82; 80,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,23; 58,13</t>
+          <t>47,98; 53,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58,67; 63,39</t>
+          <t>55,57; 60,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>55,44; 59,95</t>
+          <t>50,82; 55,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,29; 59,49</t>
+          <t>54,72; 74,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>55,99%</t>
+          <t>56,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>59,83%</t>
+          <t>65,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>59,32%</t>
+          <t>60,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>62,71%</t>
+          <t>61,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,9%</t>
+          <t>42,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>50,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>47,41%</t>
+          <t>51,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>55,81%</t>
+          <t>53,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>50,92%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>58,26%</t>
+          <t>57,83%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>53,36%</t>
+          <t>55,39%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>58,99%</t>
+          <t>57,22%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>51,76; 59,96</t>
+          <t>52,56; 59,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,8; 63,57</t>
+          <t>62,1; 68,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>55,38; 63,04</t>
+          <t>56,85; 63,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>58,84; 66,66</t>
+          <t>57,62; 65,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,47; 49,79</t>
+          <t>39,35; 45,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,51; 60,29</t>
+          <t>47,79; 54,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,63; 51,17</t>
+          <t>47,57; 54,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,77; 71,42</t>
+          <t>48,86; 61,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,98; 53,48</t>
+          <t>46,72; 51,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55,57; 60,88</t>
+          <t>55,51; 60,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,82; 55,99</t>
+          <t>53,3; 57,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>54,82; 67,14</t>
+          <t>54,5; 62,76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>56,01%</t>
+          <t>59,32%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>65,24%</t>
+          <t>65,4%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>60,0%</t>
+          <t>60,71%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>62,12%</t>
+          <t>64,98%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>42,61%</t>
+          <t>47,26%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>50,97%</t>
+          <t>54,33%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>51,15%</t>
+          <t>52,28%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>55,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>48,99%</t>
+          <t>53,21%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>57,83%</t>
+          <t>59,82%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>55,39%</t>
+          <t>56,45%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>56,02%</t>
+          <t>59,97%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>52,56; 59,14</t>
+          <t>57,64; 61,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>62,1; 68,21</t>
+          <t>63,75; 67,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>56,85; 63,59</t>
+          <t>58,94; 62,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>58,45; 65,45</t>
+          <t>61,6; 74,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,35; 45,58</t>
+          <t>45,59; 48,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,79; 54,05</t>
+          <t>52,6; 56,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,57; 54,0</t>
+          <t>50,49; 53,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47,95; 53,98</t>
+          <t>51,48; 63,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>46,72; 51,26</t>
+          <t>52,04; 54,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>55,51; 60,08</t>
+          <t>58,52; 61,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53,3; 57,81</t>
+          <t>55,19; 57,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>53,89; 58,59</t>
+          <t>57,15; 66,02</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>59,32%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>65,4%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>60,71%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>63,05%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>47,26%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>54,33%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>52,28%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>52,98%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>53,21%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>59,82%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>56,45%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>57,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>57,64; 61,08</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>63,75; 67,17</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>58,94; 62,47</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>61,01; 65,46</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>45,59; 48,95</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>52,6; 56,17</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>50,49; 53,87</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>50,9; 58,14</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>52,04; 54,57</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>58,52; 61,0</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>55,19; 57,62</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>56,31; 60,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/IMC_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>59,23; 66,64</t>
+          <t>59,81; 66,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66,96; 74,0</t>
+          <t>66,93; 73,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,17; 68,73</t>
+          <t>61,18; 68,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>64,74; 72,85</t>
+          <t>64,54; 72,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,36; 55,95</t>
+          <t>48,45; 55,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>50,4; 58,64</t>
+          <t>50,64; 58,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>50,53; 58,37</t>
+          <t>50,57; 58,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,88; 59,44</t>
+          <t>53,02; 59,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>55,02; 60,35</t>
+          <t>55,21; 60,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>59,82; 65,14</t>
+          <t>60,24; 65,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>57,12; 62,33</t>
+          <t>57,17; 62,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>59,75; 65,01</t>
+          <t>59,81; 65,07</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,93; 65,53</t>
+          <t>58,8; 65,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,96; 69,14</t>
+          <t>63,13; 69,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,64; 62,78</t>
+          <t>56,43; 62,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>56,99; 83,18</t>
+          <t>56,98; 81,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,3; 52,71</t>
+          <t>46,34; 52,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,48; 59,09</t>
+          <t>52,64; 59,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,67; 58,74</t>
+          <t>52,76; 58,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,35; 53,82</t>
+          <t>48,17; 53,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,23; 58,13</t>
+          <t>53,73; 58,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58,67; 63,39</t>
+          <t>58,67; 63,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>55,44; 59,95</t>
+          <t>55,34; 60,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>53,85; 72,07</t>
+          <t>54,25; 72,5</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,76; 59,96</t>
+          <t>51,92; 59,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>55,8; 63,57</t>
+          <t>56,48; 63,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>55,38; 63,04</t>
+          <t>55,68; 63,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>58,02; 66,22</t>
+          <t>57,19; 65,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>42,47; 49,79</t>
+          <t>42,0; 49,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,51; 60,29</t>
+          <t>52,77; 60,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>43,63; 51,17</t>
+          <t>43,12; 50,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>47,82; 80,62</t>
+          <t>47,86; 81,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>47,98; 53,48</t>
+          <t>48,09; 53,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>55,57; 60,88</t>
+          <t>55,65; 60,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>50,82; 55,99</t>
+          <t>50,43; 55,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>54,72; 74,05</t>
+          <t>54,56; 75,46</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,56; 59,14</t>
+          <t>52,84; 59,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,1; 68,21</t>
+          <t>62,29; 68,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,85; 63,59</t>
+          <t>56,75; 63,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>57,62; 65,16</t>
+          <t>58,48; 65,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,35; 45,58</t>
+          <t>39,73; 45,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,79; 54,05</t>
+          <t>47,78; 54,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,57; 54,0</t>
+          <t>47,85; 54,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,86; 61,78</t>
+          <t>48,96; 63,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,72; 51,26</t>
+          <t>46,5; 51,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55,51; 60,08</t>
+          <t>55,44; 60,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>53,3; 57,81</t>
+          <t>53,03; 57,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>54,5; 62,76</t>
+          <t>54,43; 62,05</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57,64; 61,08</t>
+          <t>57,66; 61,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63,75; 67,17</t>
+          <t>63,66; 67,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>58,94; 62,47</t>
+          <t>59,13; 62,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>61,6; 74,65</t>
+          <t>61,42; 73,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>45,59; 48,95</t>
+          <t>45,43; 49,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>52,6; 56,17</t>
+          <t>52,57; 56,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>50,49; 53,87</t>
+          <t>50,56; 54,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>51,48; 63,44</t>
+          <t>51,31; 63,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>52,04; 54,57</t>
+          <t>51,82; 54,35</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>58,52; 61,0</t>
+          <t>58,58; 61,05</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>55,19; 57,62</t>
+          <t>55,26; 57,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>57,15; 66,02</t>
+          <t>57,11; 65,2</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sobrepeso u obesidad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>435377</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>489711</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>414055</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>427462</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>354962</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>362114</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>334906</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>362505</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>790339</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>851825</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>748961</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>789967</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>412267; 460950</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>464235; 512518</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>390550; 438382</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>400493; 452224</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>328989; 377929</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>335342; 388872</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>311414; 360758</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>342061; 383734</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>755522; 827687</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>816717; 886135</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>717033; 782742</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>756977; 823574</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1413</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>592556</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>655266</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>587910</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>791776</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>474229</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>551144</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>554193</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>473813</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1066786</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1206409</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1142104</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1265589</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>560810; 621553</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>626192; 684766</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>555415; 616785</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>673639; 963710</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>442877; 504115</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>520598; 583906</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>524533; 584342</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>446791; 498176</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1025919; 1113541</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1162070; 1254090</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1094923; 1187609</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1144439; 1529463</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>376324</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>442673</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>442291</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>432510</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>310791</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>422747</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>354356</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>534265</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>687115</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>865420</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>796647</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>966776</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>348950; 402309</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>417910; 473280</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>415124; 470278</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>398569; 459010</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>284413; 334563</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>393484; 450476</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>322334; 380080</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>420258; 714432</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>648852; 722330</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>826714; 904231</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>752886; 834296</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>859285; 1188516</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>971</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1073</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1444</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>520288</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>609975</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>543471</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>556334</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>435060</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>515204</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>503765</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>558436</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>955348</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1125178</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1047236</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1114771</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>490836; 552473</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>582356; 637736</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>514022; 574318</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>525503; 589063</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>405671; 468385</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>482956; 547580</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>471185; 537317</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>513760; 665986</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>906832; 998087</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1078652; 1168159</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1002563; 1089026</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1060327; 1208715</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1897</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2173</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1540</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1717</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1624</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2870</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3444</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3521</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5043</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1924545</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2197624</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1987728</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2208083</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1575042</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1851209</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1747221</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1929019</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3499587</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4048833</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3734948</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4137102</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1870667; 1980387</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2139359; 2254473</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1935748; 2047170</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2087287; 2493642</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1514167; 1636648</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1791319; 1908600</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1690039; 1806197</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1795803; 2223087</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3408281; 3574539</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3964416; 4131460</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3656367; 3817441</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3939613; 4497479</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>